--- a/data/nano_bert_lineplot_braf_1.xlsx
+++ b/data/nano_bert_lineplot_braf_1.xlsx
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1062,10 +1062,10 @@
         <v>0.0734834328420667</v>
       </c>
       <c r="D2" s="2">
-        <v>1.02977653723633</v>
+        <v>0.982952696</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0328703981775127</v>
+        <v>0.090851038</v>
       </c>
       <c r="F2">
         <v>1.00627747263662</v>
@@ -1085,10 +1085,10 @@
         <v>0.0920728443266601</v>
       </c>
       <c r="D3" s="2">
-        <v>0.963293300670989</v>
+        <v>0.963293301</v>
       </c>
       <c r="E3" s="2">
-        <v>0.121493205103401</v>
+        <v>0.121493205</v>
       </c>
       <c r="F3">
         <v>0.969399645902769</v>
@@ -1108,10 +1108,10 @@
         <v>0.0287335818649893</v>
       </c>
       <c r="D4" s="2">
-        <v>1.00279450057724</v>
+        <v>1.002794501</v>
       </c>
       <c r="E4" s="2">
-        <v>0.07107138166196</v>
+        <v>0.071071382</v>
       </c>
       <c r="F4">
         <v>0.953137866848335</v>
@@ -1131,10 +1131,10 @@
         <v>0.0341704097446732</v>
       </c>
       <c r="D5" s="2">
-        <v>0.969787650305422</v>
+        <v>0.96978765</v>
       </c>
       <c r="E5" s="2">
-        <v>0.158575034884208</v>
+        <v>0.158575035</v>
       </c>
       <c r="F5">
         <v>0.837364831333992</v>
@@ -1154,10 +1154,10 @@
         <v>0.098215800750909</v>
       </c>
       <c r="D6" s="2">
-        <v>0.959784038019155</v>
+        <v>0.959784038</v>
       </c>
       <c r="E6" s="2">
-        <v>0.116524552823414</v>
+        <v>0.116524553</v>
       </c>
       <c r="F6">
         <v>0.48776495715142</v>
@@ -1177,10 +1177,10 @@
         <v>0.0822777944325269</v>
       </c>
       <c r="D7" s="2">
-        <v>0.969431029268869</v>
+        <v>0.969431029</v>
       </c>
       <c r="E7" s="2">
-        <v>0.0942860170783142</v>
+        <v>0.094286017</v>
       </c>
       <c r="F7">
         <v>0.192521331756844</v>
@@ -1200,10 +1200,10 @@
         <v>0.0762404461423321</v>
       </c>
       <c r="D8" s="2">
-        <v>0.753018527909132</v>
+        <v>0.753018528</v>
       </c>
       <c r="E8" s="2">
-        <v>0.102221713967372</v>
+        <v>0.102221714</v>
       </c>
       <c r="F8">
         <v>0.117692861723037</v>
@@ -1223,10 +1223,10 @@
         <v>0.0647102824226774</v>
       </c>
       <c r="D9" s="2">
-        <v>0.334670206936775</v>
+        <v>0.334670207</v>
       </c>
       <c r="E9" s="2">
-        <v>0.0500673581664445</v>
+        <v>0.050067358</v>
       </c>
       <c r="F9">
         <v>0.122231134846739</v>
@@ -1246,10 +1246,10 @@
         <v>0.0876278415215716</v>
       </c>
       <c r="D10" s="2">
-        <v>0.191020601887401</v>
+        <v>0.191020602</v>
       </c>
       <c r="E10" s="2">
-        <v>0.0650548210288736</v>
+        <v>0.065054821</v>
       </c>
       <c r="F10">
         <v>0.0979596283516091</v>
@@ -1269,10 +1269,10 @@
         <v>0.0393381963751977</v>
       </c>
       <c r="D11" s="2">
-        <v>0.128803685027093</v>
+        <v>0.128803685</v>
       </c>
       <c r="E11" s="2">
-        <v>0.0400771348023738</v>
+        <v>0.040077135</v>
       </c>
       <c r="F11">
         <v>0.0385664842338946</v>
